--- a/output/0/tRNA-Ala-AGC-8-2.xlsx
+++ b/output/0/tRNA-Ala-AGC-8-2.xlsx
@@ -12,102 +12,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>chr8</t>
   </si>
   <si>
-    <t>67026446</t>
-  </si>
-  <si>
-    <t>67026469</t>
+    <t>67026221</t>
+  </si>
+  <si>
+    <t>67026244</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>67026224</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>CTACCAGCTGAGCTATCGAA</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>91% (64)</t>
+  </si>
+  <si>
+    <t>71% (55)</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>67026222</t>
+  </si>
+  <si>
+    <t>67026245</t>
+  </si>
+  <si>
+    <t>67026225</t>
+  </si>
+  <si>
+    <t>TCTACCAGCTGAGCTATCGA</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>84% (61)</t>
+  </si>
+  <si>
+    <t>12% (24)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>67026226</t>
+  </si>
+  <si>
+    <t>67026249</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>67026466</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>GCGCTCGCTTAGCATGCGAG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>98% (70)</t>
+    <t>67026246</t>
+  </si>
+  <si>
+    <t>CGATAGCTCAGCTGGTAGAG</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>92% (65)</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>67026229</t>
+  </si>
+  <si>
+    <t>67026252</t>
+  </si>
+  <si>
+    <t>TAGCTCAGCTGGTAGAGCGG</t>
+  </si>
+  <si>
+    <t>94% (66)</t>
+  </si>
+  <si>
+    <t>89% (68)</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>67026237</t>
+  </si>
+  <si>
+    <t>67026260</t>
+  </si>
+  <si>
+    <t>67026257</t>
+  </si>
+  <si>
+    <t>CTGGTAGAGCGGAGGACTGT</t>
+  </si>
+  <si>
+    <t>40% (47)</t>
+  </si>
+  <si>
+    <t>59% (49)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>67026277</t>
+  </si>
+  <si>
+    <t>67026300</t>
+  </si>
+  <si>
+    <t>67026280</t>
+  </si>
+  <si>
+    <t>GGAATCGAACCAGCGACCTA</t>
+  </si>
+  <si>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>52% (46)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>67026279</t>
+  </si>
+  <si>
+    <t>67026302</t>
+  </si>
+  <si>
+    <t>67026299</t>
+  </si>
+  <si>
+    <t>TTAGGTCGCTGGTTCGATTC</t>
+  </si>
+  <si>
+    <t>25% (41)</t>
+  </si>
+  <si>
+    <t>91% (71)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>67026287</t>
+  </si>
+  <si>
+    <t>67026310</t>
+  </si>
+  <si>
+    <t>67026307</t>
+  </si>
+  <si>
+    <t>CTGGTTCGATTCCGGCTCGA</t>
+  </si>
+  <si>
+    <t>75% (58)</t>
   </si>
   <si>
     <t>77% (59)</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>74</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>67026452</t>
-  </si>
-  <si>
-    <t>67026475</t>
-  </si>
-  <si>
-    <t>67026472</t>
-  </si>
-  <si>
-    <t>GCTTAGCATGCGAGAGGTAG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>84% (64)</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>67026453</t>
-  </si>
-  <si>
-    <t>67026476</t>
-  </si>
-  <si>
-    <t>67026473</t>
-  </si>
-  <si>
-    <t>CTTAGCATGCGAGAGGTAGC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>52% (46)</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
 </sst>
 </file>
@@ -152,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -175,10 +292,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -234,10 +351,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -290,13 +407,13 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -308,30 +425,325 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
       </c>
       <c r="S3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
         <v>3</v>
       </c>
     </row>
